--- a/Nevada/Overlays/NVov_Overlay Schema Mapping to WaDE.xlsx
+++ b/Nevada/Overlays/NVov_Overlay Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nevada\Regulatory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nevada\Overlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73ECBE7-6E98-4CA1-ABFC-5210E73748B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C96F46B-14EF-423B-A6CF-B8EFB489D3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="645" activeTab="6" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="169">
   <si>
     <t>Name</t>
   </si>
@@ -474,13 +474,7 @@
     <t>Groundwater regulatory areas in Nevada.  Helps determine which areas need a groundwater plan (i.e. Designated Basins) or not.</t>
   </si>
   <si>
-    <t>http://water.nv.gov/gisdata.aspx</t>
-  </si>
-  <si>
     <t>https://www.leg.state.nv.us/NRS/NRS-534.html#NRS534Sec037</t>
-  </si>
-  <si>
-    <t>http://water.nv.gov/faq.aspx?category=Domestic%20Wells</t>
   </si>
   <si>
     <r>
@@ -531,9 +525,6 @@
     <t>http://water.nv.gov/index.aspx</t>
   </si>
   <si>
-    <t>NVre_RU + counter</t>
-  </si>
-  <si>
     <t>*create WKT</t>
   </si>
   <si>
@@ -546,32 +537,37 @@
     <t>(blank)</t>
   </si>
   <si>
-    <t>NVre_RO + counter</t>
-  </si>
-  <si>
     <t>Office of the Nevada State Engineer</t>
-  </si>
-  <si>
-    <t>Designated;
-Not Designated</t>
   </si>
   <si>
     <t>Groundwater</t>
   </si>
   <si>
-    <t>DesigStatu</t>
-  </si>
-  <si>
-    <t>will clean up</t>
-  </si>
-  <si>
-    <t>Designated</t>
-  </si>
-  <si>
     <t>BasinID</t>
   </si>
   <si>
-    <t>NVre_O1</t>
+    <t>https://data-ndwr.hub.arcgis.com/datasets/NDWR::basins-state-engineer-admin-boundaries/about</t>
+  </si>
+  <si>
+    <t>Designatio</t>
+  </si>
+  <si>
+    <t>Basins_State_Engineer_Admin_Boundaries</t>
+  </si>
+  <si>
+    <t>*use custom text based on Designatio</t>
+  </si>
+  <si>
+    <t>Fill in if balnk</t>
+  </si>
+  <si>
+    <t>NVov_O1</t>
+  </si>
+  <si>
+    <t>NVov_RU + counter</t>
+  </si>
+  <si>
+    <t>NVov_RO + counter</t>
   </si>
 </sst>
 </file>
@@ -1309,9 +1305,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1349,7 +1345,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1455,7 +1451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1597,7 +1593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1605,11 +1601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1667,48 +1663,46 @@
       <c r="A5" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="117" t="s">
-        <v>144</v>
-      </c>
+      <c r="B5" s="117"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="118"/>
       <c r="B6" s="117" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="118"/>
-      <c r="B7" s="117" t="s">
-        <v>146</v>
-      </c>
+      <c r="B7" s="117"/>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="116" t="s">
-        <v>147</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="118"/>
+      <c r="B8" s="117" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="118"/>
+      <c r="A9" s="115" t="s">
+        <v>34</v>
+      </c>
       <c r="B9" s="116" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="118"/>
-      <c r="B10" s="49" t="s">
-        <v>149</v>
+      <c r="B10" s="116" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="118"/>
+      <c r="B11" s="49" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="118"/>
-      <c r="B12" s="49"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="118"/>
@@ -1727,12 +1721,13 @@
       <c r="B16" s="49"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="115" t="s">
-        <v>150</v>
-      </c>
+      <c r="A17" s="118"/>
       <c r="B17" s="49"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="115" t="s">
+        <v>148</v>
+      </c>
       <c r="B18" s="49"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1765,14 +1760,15 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" s="49"/>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="49"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{4BA9CF0E-5A07-4895-96E8-A9DA5C615541}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{6A6FDED9-C65A-452C-B12D-C18FDA7E7DEA}"/>
-    <hyperlink ref="B6" r:id="rId3" location="NRS534Sec037" xr:uid="{AF4D7069-6163-458F-B426-999A4FE1D15A}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{6F5350C9-AF45-4A6B-ADED-FD5DE4FE5411}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2081,7 +2077,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>8</v>
@@ -2116,7 +2112,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="120" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>8</v>
@@ -2151,7 +2147,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>8</v>
@@ -2221,7 +2217,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="121" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>8</v>
@@ -2256,7 +2252,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>8</v>
@@ -2291,7 +2287,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="122" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>8</v>
@@ -2392,7 +2388,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2498,7 +2494,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>8</v>
@@ -2572,7 +2568,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>8</v>
@@ -2612,10 +2608,10 @@
         <v>8</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I6" s="78" t="s">
         <v>8</v>
@@ -2649,10 +2645,10 @@
         <v>8</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="I7" s="78" t="s">
         <v>8</v>
@@ -2683,7 +2679,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G8" s="46" t="s">
         <v>8</v>
@@ -2718,7 +2714,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G9" s="46" t="s">
         <v>8</v>
@@ -2755,7 +2751,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G10" s="46" t="s">
         <v>8</v>
@@ -2878,9 +2874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840F4EBE-1122-49FE-9814-7C21AEF7536A}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2976,7 +2972,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G3" s="123" t="s">
         <v>8</v>
@@ -3011,7 +3007,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G4" s="46" t="s">
         <v>8</v>
@@ -3046,14 +3042,10 @@
         <v>8</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>165</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G5" s="46"/>
+      <c r="H5" s="64"/>
       <c r="I5" s="31" t="s">
         <v>8</v>
       </c>
@@ -3084,10 +3076,10 @@
         <v>8</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>8</v>
@@ -3119,10 +3111,10 @@
         <v>8</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>8</v>
@@ -3134,7 +3126,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>58</v>
       </c>
@@ -3151,13 +3143,13 @@
         <v>8</v>
       </c>
       <c r="F8" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="46" t="s">
-        <v>158</v>
-      </c>
       <c r="H8" s="47" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>8</v>
@@ -3186,7 +3178,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G9" s="61" t="s">
         <v>8</v>
@@ -3219,7 +3211,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G10" s="46" t="s">
         <v>8</v>
@@ -3289,7 +3281,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G12" s="61" t="s">
         <v>8</v>
@@ -3322,7 +3314,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G13" s="46" t="s">
         <v>8</v>
@@ -3357,7 +3349,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G14" s="31" t="s">
         <v>8</v>
@@ -3417,7 +3409,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3694,9 +3686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0292DBD0-9449-426F-89D5-E70E5E92E32E}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
